--- a/Распределение-работ.xlsx
+++ b/Распределение-работ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\МКП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\OpenServer\domains\Kalnov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D594F3B-A78A-4344-8F3E-3EA0FFD6A8E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADCB65-9796-4CE1-ADBA-A4B0926A8E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85A53615-89E5-45F2-8EBE-759E4129A5F1}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178787D-39E1-40D4-BE00-0B6686659600}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -655,13 +655,13 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>85</v>
@@ -702,13 +702,13 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="Q4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Распределение-работ.xlsx
+++ b/Распределение-работ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\OpenServer\domains\Kalnov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADCB65-9796-4CE1-ADBA-A4B0926A8E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D516B2-458C-4AD3-A4C4-99B4D643D3CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85A53615-89E5-45F2-8EBE-759E4129A5F1}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178787D-39E1-40D4-BE00-0B6686659600}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -658,16 +658,16 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -676,13 +676,13 @@
         <v>100</v>
       </c>
       <c r="N3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="Q3">
         <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L4">
         <v>50</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O4">
         <v>10</v>

--- a/Распределение-работ.xlsx
+++ b/Распределение-работ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\МКП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\OpenServer\domains\Kalnov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D594F3B-A78A-4344-8F3E-3EA0FFD6A8E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D516B2-458C-4AD3-A4C4-99B4D643D3CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85A53615-89E5-45F2-8EBE-759E4129A5F1}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178787D-39E1-40D4-BE00-0B6686659600}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q2">
         <v>20</v>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -655,19 +655,19 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -676,13 +676,13 @@
         <v>100</v>
       </c>
       <c r="N3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="Q3">
         <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>85</v>
@@ -702,19 +702,19 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L4">
         <v>50</v>
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O4">
         <v>10</v>
       </c>
       <c r="Q4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
